--- a/01.15.2024/financial_anal.xlsx
+++ b/01.15.2024/financial_anal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ftfy repo\ftfy github repo\financialaudit\01.15.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3EE8BEF-814F-4711-9B0B-1E253D72BC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD13C2-CA12-4866-A654-79B21781B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4824" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
   </bookViews>
@@ -36,20 +36,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Balance Sheet</t>
   </si>
   <si>
     <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Net Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -77,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,22 +440,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01.15.2024/financial_anal.xlsx
+++ b/01.15.2024/financial_anal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ftfy repo\ftfy github repo\financialaudit\01.15.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD13C2-CA12-4866-A654-79B21781B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EBADC-6C58-4D15-988E-189534B357FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}</author>
+    <author>tc={F9671CB5-97BE-4F5A-B668-B2B87A615A24}</author>
+    <author>tc={28214DA6-2D34-4384-884C-85D3819B41D5}</author>
+  </authors>
+  <commentList>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Order of liquidity</t>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="1" shapeId="0" xr:uid="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should probably order by interest rate
+Reply:
+    Outstanding balances only</t>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="2" shapeId="0" xr:uid="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Largest expenses and fixed monthly expenses first</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Assets</t>
   </si>
@@ -60,13 +92,292 @@
   </si>
   <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Cash Inflows</t>
+  </si>
+  <si>
+    <t>Cash Outflows</t>
+  </si>
+  <si>
+    <t>Person's General Info:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Career/Job:</t>
+  </si>
+  <si>
+    <t>Education:</t>
+  </si>
+  <si>
+    <t>Children:</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Age:</t>
+  </si>
+  <si>
+    <t>Spiritual Coach</t>
+  </si>
+  <si>
+    <t>Family/Relationship:</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Financial Literacy:</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Personality/Narrative:</t>
+  </si>
+  <si>
+    <t>Indecesive/feeling/emotional</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Overall Rating:</t>
+  </si>
+  <si>
+    <t>Checking Account</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Wallet/Under the Mattress</t>
+  </si>
+  <si>
+    <t>Savings Account</t>
+  </si>
+  <si>
+    <t>Amount:</t>
+  </si>
+  <si>
+    <t>Description/Notes:</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>401(k)</t>
+  </si>
+  <si>
+    <t>Roth IRA (After Tax)</t>
+  </si>
+  <si>
+    <t>Traditional IRA (Pre Tax)</t>
+  </si>
+  <si>
+    <t>Rollover IRA (Pre Tax)</t>
+  </si>
+  <si>
+    <t>Brokerage/Stocks</t>
+  </si>
+  <si>
+    <t>Brokerage/Bonds</t>
+  </si>
+  <si>
+    <t>Brokerage/Other</t>
+  </si>
+  <si>
+    <t>CDs</t>
+  </si>
+  <si>
+    <t>High Yield Savings</t>
+  </si>
+  <si>
+    <t>Balance Sheet:</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flow:</t>
+  </si>
+  <si>
+    <t>Home Equity… (HELOC)</t>
+  </si>
+  <si>
+    <t>Other Loans (Secured)</t>
+  </si>
+  <si>
+    <t>Other Loans (Unsecured)</t>
+  </si>
+  <si>
+    <t>Interest Rate:</t>
+  </si>
+  <si>
+    <t>% (Savings Rate)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Credit Card #1</t>
+  </si>
+  <si>
+    <t>Credit Card #2</t>
+  </si>
+  <si>
+    <t>Car Note</t>
+  </si>
+  <si>
+    <t>Home Mortgage</t>
+  </si>
+  <si>
+    <t>Student Loan</t>
+  </si>
+  <si>
+    <t>Financed Purchases</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Taxes, Outstanding Debt to IRS</t>
+  </si>
+  <si>
+    <t>Medical Bills, Outstanding Debt</t>
+  </si>
+  <si>
+    <t>Calculate Difference</t>
+  </si>
+  <si>
+    <t>Net Worth (A=L+E)</t>
+  </si>
+  <si>
+    <t>Income Statement (1 Month):</t>
+  </si>
+  <si>
+    <t>Income Statement (Annualized, 1 Month Projected Over the Calendar Year):</t>
+  </si>
+  <si>
+    <t>Credit Cards, Outstanding Balance</t>
+  </si>
+  <si>
+    <t>Other (Has to be liquid)</t>
+  </si>
+  <si>
+    <t>Wages/Salaries (After Tax)</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>2 Paychecks for W2 Employee</t>
+  </si>
+  <si>
+    <t>Other, Must Generate Cash Flow</t>
+  </si>
+  <si>
+    <t>Rental Property</t>
+  </si>
+  <si>
+    <t>Other Lines of Credit, Outstanding Debt</t>
+  </si>
+  <si>
+    <t>Personal Loan (IOU to Family/Friends)</t>
+  </si>
+  <si>
+    <t>Rental Income</t>
+  </si>
+  <si>
+    <t>Side Hustle/Hobby</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Mortgage Payment</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Debt Payments</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Financing</t>
+  </si>
+  <si>
+    <t>Credit Card, Avg Pmt</t>
+  </si>
+  <si>
+    <t>Car Loan Pmt</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Cell Phone Carrier Pmt</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>Only flesh out if doing extensive financial advising</t>
+  </si>
+  <si>
+    <t>Ignore %returns bc of uncertainty of capital markets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +392,29 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +437,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +457,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrade, Jason" id="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" userId="S::jason93@vt.edu::2bb7b4b5-c45e-4d15-b854-f36bc89a61d2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,57 +780,525 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A16" dT="2024-01-17T02:26:36.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+    <text>Order of liquidity</text>
+  </threadedComment>
+  <threadedComment ref="A37" dT="2024-01-17T02:54:07.67" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+    <text>Should probably order by interest rate</text>
+  </threadedComment>
+  <threadedComment ref="A37" dT="2024-01-17T03:12:25.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{E1A5ED7D-F6B6-4033-AB6F-7B42138EB11B}" parentId="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+    <text>Outstanding balances only</text>
+  </threadedComment>
+  <threadedComment ref="A70" dT="2024-01-17T03:15:50.57" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+    <text>Largest expenses and fixed monthly expenses first</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>